--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_st01.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_st01.xlsx
@@ -1712,7 +1712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]—But keeping the two of you forever in the dark would be quite unbecoming. Whatever next, ho! Mm... just call me... Mr.Nothing, then.
+    <t xml:space="preserve">[name="???"]—But keeping the two of you forever in the dark would be quite unbecoming. Whatever next, ho! Mm... just call me... Mr. Nothing, then.
 </t>
   </si>
   <si>
@@ -1720,7 +1720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Not at all, not at all! How could I!
+    <t xml:space="preserve">[name="Mr. Nothing"]Not at all, not at all! How could I!
 </t>
   </si>
   <si>
@@ -1728,7 +1728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]That it is, that it is! Dear benefactor, you're quite well-versed indeed to have heard word of a town so small!
+    <t xml:space="preserve">[name="Mr. Nothing"]That it is, that it is! Dear benefactor, you're quite well-versed indeed to have heard word of a town so small!
 </t>
   </si>
   <si>
@@ -1736,15 +1736,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kroos"]How about this, Mister Mr.Nothing? We'll escort you there, but once we've reached where we're aiming for, you'll need to help us out a little too.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Not a problem! Not a problem! With my carriage in the lakebed and me waiting for a rescue team to fish it out, my plate is completely empty in the meanwhile.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ohh, ohh... Just as the proverb goes, a drop of kindness warrants a fountain of redress! That I should have the chance so soon to repay your graces in saving my life! Surely, the heavens have smiled upon me! They have smiled upon me!
+    <t xml:space="preserve">[name="Kroos"]How about this, Mister Mr. Nothing? We'll escort you there, but once we've reached where we're aiming for, you'll need to help us out a little too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Not a problem! Not a problem! With my carriage in the lakebed and me waiting for a rescue team to fish it out, my plate is completely empty in the meanwhile.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Ohh, ohh... Just as the proverb goes, a drop of kindness warrants a fountain of redress! That I should have the chance so soon to repay your graces in saving my life! Surely, the heavens have smiled upon me! They have smiled upon me!
 </t>
   </si>
   <si>
@@ -1760,7 +1760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Benefactor! Oh, benefactor! I plead that you must give me this chance!
+    <t xml:space="preserve">[name="Mr. Nothing"]Benefactor! Oh, benefactor! I plead that you must give me this chance!
 </t>
   </si>
   <si>
@@ -1788,15 +1788,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]......
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lava"]Uh... sorry. I should let you in the loop first, Mr.Nothing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Very well. Everything you say, rest assured I'll engrave into my flesh and soul. Three recitations before bed, three when I wake—
+    <t xml:space="preserve">[name="Mr. Nothing"]......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Uh... sorry. I should let you in the loop first, Mr. Nothing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Very well. Everything you say, rest assured I'll engrave into my flesh and soul. Three recitations before bed, three when I wake—
 </t>
   </si>
   <si>
@@ -2040,11 +2040,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ohh, ohh... helping find your colleague's precious little sister, estranged for years, you traveled myriads far to this place of ours. Benefactors, surely enough, you are made of heroic stuff!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I admire you! I cannot help but admire you!
+    <t xml:space="preserve">[name="Mr. Nothing"]Ohh, ohh... helping find your colleague's precious little sister, estranged for years, you traveled myriads far to this place of ours. Benefactors, surely enough, you are made of heroic stuff!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]I admire you! I cannot help but admire you!
 </t>
   </si>
   <si>
@@ -2056,7 +2056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I'm in no rush, no rush at all. Benefactors, do as you do.
+    <t xml:space="preserve">[name="Mr. Nothing"]I'm in no rush, no rush at all. Benefactors, do as you do.
 </t>
   </si>
   <si>
@@ -2064,7 +2064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]None! None for a thousand li around. Just Ni-weng Village all alone.
+    <t xml:space="preserve">[name="Mr. Nothing"]None! None for a thousand li around. Just Ni-weng Village all alone.
 </t>
   </si>
   <si>
@@ -2080,7 +2080,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Verily! I know this area well... Don't gaze at me like that, I really do know it! When I was young, I'd frolic about this place come rain or shine!
+    <t xml:space="preserve">[name="Mr. Nothing"]Verily! I know this area well... Don't gaze at me like that, I really do know it! When I was young, I'd frolic about this place come rain or shine!
 </t>
   </si>
   <si>
@@ -2088,11 +2088,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ah, this I must proclaim clear to you two benefactors. If you wish to find someone in the villages surrounding Kou-wu City, you need only visit a teahouse, call out loud, and your friends and strangers alike will come rushing over.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Give me one scant hour, and I'll be sure to find your—That's right, does the person you're looking for have any particular features? What's their name? What status do they hold?
+    <t xml:space="preserve">[name="Mr. Nothing"]Ah, this I must proclaim clear to you two benefactors. If you wish to find someone in the villages surrounding Kou-wu City, you need only visit a teahouse, call out loud, and your friends and strangers alike will come rushing over.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Give me one scant hour, and I'll be sure to find your—That's right, does the person you're looking for have any particular features? What's their name? What status do they hold?
 </t>
   </si>
   <si>
@@ -2104,7 +2104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Benefactors, benefactors, I see it!
+    <t xml:space="preserve">[name="Mr. Nothing"]Benefactors, benefactors, I see it!
 </t>
   </si>
   <si>
@@ -2116,7 +2116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Well! So deep within the forests and hills, without water or electricity, she built herself a thatched cottage? Benefactors, your friend's sister truly has a mind for aesthetics.
+    <t xml:space="preserve">[name="Mr. Nothing"]Well! So deep within the forests and hills, without water or electricity, she built herself a thatched cottage? Benefactors, your friend's sister truly has a mind for aesthetics.
 </t>
   </si>
   <si>
@@ -2144,7 +2144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Benefactors, what if I go first and ask at the door? See if anyone's in? Perhaps we've been looking in error?
+    <t xml:space="preserve">[name="Mr. Nothing"]Benefactors, what if I go first and ask at the door? See if anyone's in? Perhaps we've been looking in error?
 </t>
   </si>
   <si>
@@ -2168,7 +2168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I presume she's out on a walk?
+    <t xml:space="preserve">[name="Mr. Nothing"]I presume she's out on a walk?
 </t>
   </si>
   <si>
@@ -2176,7 +2176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Yet you can see the water mottling this door, and the leaves have piled up dead. It doesn't give the air that anyone lives here... Should we try and knock?
+    <t xml:space="preserve">[name="Mr. Nothing"]Yet you can see the water mottling this door, and the leaves have piled up dead. It doesn't give the air that anyone lives here... Should we try and knock?
 </t>
   </si>
   <si>
@@ -2868,7 +2868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"]가자.
+    <t xml:space="preserve">[name="라바"]가보게.
 </t>
   </si>
   <si>
